--- a/archivo_maestro.xlsx
+++ b/archivo_maestro.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet sheetId="2" name="Tableros" state="visible" r:id="rId4"/>
     <sheet sheetId="1" name="Nuevas" state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="Viejas" state="visible" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase">Nuevas!$A$1:$G$73</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="161">
-  <si>
-    <t>TABLERO DE MULTAS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="212">
+  <si>
+    <t>TABLERO DE UNIDADES</t>
   </si>
   <si>
     <t>UNIDAD</t>
@@ -276,6 +279,21 @@
     <t>PY21211240</t>
   </si>
   <si>
+    <t>KIKE</t>
+  </si>
+  <si>
+    <t>VIRTUS</t>
+  </si>
+  <si>
+    <t>JSS2618</t>
+  </si>
+  <si>
+    <t>9BWDL5BZ4NP003456</t>
+  </si>
+  <si>
+    <t>CWS559586</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -312,10 +330,55 @@
     <t>2024-10-02 08:21:21</t>
   </si>
   <si>
+    <t>RECARGOS INFRACCIONES LEY DE MOVILIDAD Y TRANSP. DEL EDO. DE JAL.</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>113|454177588</t>
+  </si>
+  <si>
+    <t>MUNICIPAL, ART. 183. FRACC. III. AL CONDUCTOR QUE EXCEDA DIEZ KM. POR HORA  EL LIM. DE VEL. MÁX. PERM. CUANDO EXISTAN SEÑALAM. EN QUE SE ANUNCIE EL CITADO LIM. DE VEL.EN ZONAS PROXIMAS A CENTROS ESCOL. Y HOSP.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>DESCUENTO POR PRONTO PAGO INFRACCIONES DE TRANSITO MUNICIPAL.</t>
+  </si>
+  <si>
+    <t>RECARGOS POR INFRACCIONES DE TRANSITO EN MUNICIPIOS</t>
+  </si>
+  <si>
+    <t>113|438002479</t>
+  </si>
+  <si>
+    <t>ART. 360. NUM. 1. FRACC. VII. ESTACIONARSE EN ZONA PROHIBIDA EN CALLE LOCAL</t>
+  </si>
+  <si>
+    <t>2024-11-28 08:12:22</t>
+  </si>
+  <si>
+    <t>113|454769433</t>
+  </si>
+  <si>
+    <t>ART. 183. FRACC. III. AL CONDUCTOR QUE EXCEDA DIEZ KM. POR HORA  EL LIM. DE VEL. MÁX. PERM. CUANDO EXISTAN SEÑALAM. EN QUE SE ANUNCIE EL CITADO LIM. DE VEL.EN ZONAS PROXIMAS A CENTROS ESCOL. Y HOSP.</t>
+  </si>
+  <si>
     <t>DESCUENTO POR PRONTO PAGO INFRACCIONES LEY DE MOVILIDAD Y TRANSP. DEL EDO. DE JAL.</t>
   </si>
   <si>
-    <t>R</t>
+    <t>113|453482551</t>
+  </si>
+  <si>
+    <t>ART. 183. FRACC. III. AL CONDUCTOR QUE EXCEDA DIEZ KM. POR HORA  EL LIM. DE VEL. MÁX. PERM. CUANDO</t>
+  </si>
+  <si>
+    <t>113|453787663</t>
+  </si>
+  <si>
+    <t>113|453825571</t>
   </si>
   <si>
     <t>113|8651568</t>
@@ -324,16 +387,19 @@
     <t>113|8651568 ESTACIONOMETROS DE GUADALAJARA F. 20235273505</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>113|428063366</t>
   </si>
   <si>
     <t>113|420439927</t>
   </si>
   <si>
-    <t>RECARGOS INFRACCIONES LEY DE MOVILIDAD Y TRANSP. DEL EDO. DE JAL.</t>
+    <t>113|437880561</t>
+  </si>
+  <si>
+    <t>2024-11-14 18:13:12</t>
+  </si>
+  <si>
+    <t>113|453938318</t>
   </si>
   <si>
     <t>123|8494446</t>
@@ -363,18 +429,27 @@
     <t>2024-09-19 15:22:39</t>
   </si>
   <si>
+    <t>113|429055244</t>
+  </si>
+  <si>
     <t>123|8657080</t>
   </si>
   <si>
     <t>123|8657080 ESTACIONOMETROS DE ZAPOPAN F. 22006012023042706</t>
   </si>
   <si>
+    <t>113|437711253</t>
+  </si>
+  <si>
+    <t>ART. 379. REINCIDENCIA EN INFRACCIONES DEL ARTICULO 360. NUM. 1</t>
+  </si>
+  <si>
+    <t>2024-10-31 14:41:07</t>
+  </si>
+  <si>
     <t>113|436934965</t>
   </si>
   <si>
-    <t>ART. 379. REINCIDENCIA EN INFRACCIONES DEL ARTICULO 360. NUM. 1</t>
-  </si>
-  <si>
     <t>2024-09-03 17:27:39</t>
   </si>
   <si>
@@ -390,6 +465,9 @@
     <t>113|8858274 ESTACIONOMETROS DE GUADALAJARA F. 20235653969</t>
   </si>
   <si>
+    <t>113|428911397</t>
+  </si>
+  <si>
     <t>113|427833611</t>
   </si>
   <si>
@@ -399,6 +477,12 @@
     <t>2024-01-20 08:49:03</t>
   </si>
   <si>
+    <t>113|437341941</t>
+  </si>
+  <si>
+    <t>2024-11-22 07:48:56</t>
+  </si>
+  <si>
     <t>113|436437618</t>
   </si>
   <si>
@@ -420,9 +504,6 @@
     <t>113|437364331</t>
   </si>
   <si>
-    <t>ART. 360. NUM. 1. FRACC. VII. ESTACIONARSE EN ZONA PROHIBIDA EN CALLE LOCAL</t>
-  </si>
-  <si>
     <t>2024-10-09 12:36:39</t>
   </si>
   <si>
@@ -447,6 +528,9 @@
     <t>2022-10-29T14:37:41</t>
   </si>
   <si>
+    <t>(DÉCIMO SEPTIMO TRANSITORIO LIEJ 2025)DESCUENTO DEL 40% EN LO RELATIVO A MULTAS DE F0T0INFRACCION EFECTUANDO EL PAGO A TRAVES DE INTERNET</t>
+  </si>
+  <si>
     <t>113|391056218</t>
   </si>
   <si>
@@ -456,12 +540,12 @@
     <t>113|445246875</t>
   </si>
   <si>
-    <t>ART. 183. FRACC. III. AL CONDUCTOR QUE EXCEDA DIEZ KM. POR HORA  EL LIM. DE VEL. MÁX. PERM. CUANDO EXISTAN SEÑALAM. EN QUE SE ANUNCIE EL CITADO LIM. DE VEL.EN ZONAS PROXIMAS A CENTROS ESCOL. Y HOSP.</t>
-  </si>
-  <si>
     <t>2024-07-05T19:48:45</t>
   </si>
   <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
     <t>113|379078383</t>
   </si>
   <si>
@@ -489,16 +573,88 @@
     <t>2023-07-23T15:41:01</t>
   </si>
   <si>
+    <t>113|450978414</t>
+  </si>
+  <si>
     <t>113|404028111</t>
   </si>
   <si>
     <t>2023-08-13T15:14:16</t>
   </si>
   <si>
+    <t>113|452507838</t>
+  </si>
+  <si>
     <t>113|427168811</t>
   </si>
   <si>
     <t>2023-11-02 21:04:26</t>
+  </si>
+  <si>
+    <t>JUE4027</t>
+  </si>
+  <si>
+    <t>113|410681565</t>
+  </si>
+  <si>
+    <t>2023-12-24T18:52:39</t>
+  </si>
+  <si>
+    <t>113|450975507</t>
+  </si>
+  <si>
+    <t>113|452841250</t>
+  </si>
+  <si>
+    <t>113|454613402</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>JRT6049</t>
+  </si>
+  <si>
+    <t>113|399489748</t>
+  </si>
+  <si>
+    <t>2023-05-29T13:14:11</t>
+  </si>
+  <si>
+    <t>113|401852978</t>
+  </si>
+  <si>
+    <t>2023-07-04T10:41:16</t>
+  </si>
+  <si>
+    <t>113|404503138</t>
+  </si>
+  <si>
+    <t>2023-08-21T16:10:16</t>
+  </si>
+  <si>
+    <t>113|446850273</t>
+  </si>
+  <si>
+    <t>2024-08-17T06:28:31</t>
+  </si>
+  <si>
+    <t>113|455751790</t>
+  </si>
+  <si>
+    <t>JPR2057</t>
+  </si>
+  <si>
+    <t>113|437295189</t>
+  </si>
+  <si>
+    <t>2024-09-27 07:14:32</t>
+  </si>
+  <si>
+    <t>123|9043457</t>
+  </si>
+  <si>
+    <t>123|9043457 ESTACIONOMETROS DE ZAPOPAN F. 22420052024008</t>
   </si>
 </sst>
 </file>
@@ -546,7 +702,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -572,6 +728,13 @@
       <left style="medium"/>
       <right style="medium"/>
       <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
@@ -579,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -597,10 +760,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,41 +1114,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="8.85546875"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="8.85546875" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="249.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="105.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -990,22 +1157,22 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1013,1218 +1180,2659 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E3">
-        <v>-54</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>1140</v>
+        <v>1086</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E5">
+        <v>-271</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
         <v>109</v>
       </c>
-      <c r="F5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6">
-        <v>-54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E7">
         <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9">
+        <v>1086</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10">
+        <v>-543</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11">
+        <v>1086</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12">
+        <v>-271</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13">
+        <v>1086</v>
+      </c>
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14">
+        <v>-271</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15">
+        <v>1086</v>
+      </c>
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16">
+        <v>-271</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17">
+        <v>1140</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9">
-        <v>1656</v>
-      </c>
-      <c r="F9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B22" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10">
-        <v>5495</v>
-      </c>
-      <c r="F10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11">
-        <v>109</v>
-      </c>
-      <c r="F11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12">
-        <v>-27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14">
-        <v>2171</v>
-      </c>
-      <c r="F14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15">
-        <v>-1085</v>
-      </c>
-      <c r="F15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16">
-        <v>4493</v>
-      </c>
-      <c r="F16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17">
-        <v>217</v>
-      </c>
-      <c r="F17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18">
-        <v>-108</v>
-      </c>
-      <c r="F18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19">
-        <v>217</v>
-      </c>
-      <c r="F19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20">
-        <v>-108</v>
-      </c>
-      <c r="F20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21">
-        <v>5495</v>
-      </c>
-      <c r="F21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>124</v>
       </c>
       <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>109</v>
+      </c>
+      <c r="F22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" t="s">
         <v>125</v>
       </c>
-      <c r="E22">
-        <v>104</v>
-      </c>
-      <c r="F22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E23">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>127</v>
-      </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="E24">
-        <v>109</v>
+        <v>1086</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E25">
-        <v>-27</v>
+        <v>-271</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>1656</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="E27">
+        <v>5495</v>
+      </c>
+      <c r="F27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28">
         <v>109</v>
       </c>
-      <c r="F27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E29">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G29" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>2171</v>
       </c>
       <c r="F30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
         <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="E31">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G31" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E32">
-        <v>-54</v>
+        <v>109</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>72</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>136</v>
       </c>
       <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33">
+        <v>-54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
         <v>137</v>
       </c>
-      <c r="E33">
-        <v>4897</v>
-      </c>
-      <c r="F33" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>138</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34">
+        <v>4493</v>
+      </c>
+      <c r="F34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
         <v>139</v>
       </c>
-      <c r="E34">
+      <c r="D35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35">
+        <v>217</v>
+      </c>
+      <c r="F35" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37">
+        <v>217</v>
+      </c>
+      <c r="F37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39">
+        <v>217</v>
+      </c>
+      <c r="F39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41">
         <v>5495</v>
       </c>
-      <c r="F34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35">
-        <v>962</v>
-      </c>
-      <c r="F35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36">
-        <v>297</v>
-      </c>
-      <c r="F36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37">
-        <v>962</v>
-      </c>
-      <c r="F37" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38">
-        <v>269</v>
-      </c>
-      <c r="F38" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39">
-        <v>1086</v>
-      </c>
-      <c r="F39" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40">
-        <v>-271</v>
-      </c>
-      <c r="F40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41">
-        <v>12</v>
-      </c>
       <c r="F41" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G41" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>81</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="E42">
-        <v>962</v>
+        <v>109</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G42" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>81</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>148</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E43">
-        <v>339</v>
+        <v>-54</v>
       </c>
       <c r="F43" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>150</v>
       </c>
-      <c r="D44" t="s">
-        <v>141</v>
-      </c>
       <c r="E44">
-        <v>1086</v>
+        <v>104</v>
       </c>
       <c r="F44" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G44" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>81</v>
+    <row r="45" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E45">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G45" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>81</v>
+    <row r="46" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E46">
-        <v>962</v>
+        <v>109</v>
       </c>
       <c r="F46" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G46" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>81</v>
+    <row r="47" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
         <v>152</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E47">
-        <v>297</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>81</v>
+    <row r="48" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
         <v>154</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="E48">
-        <v>1086</v>
+        <v>109</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>81</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
         <v>154</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50">
+        <v>109</v>
+      </c>
+      <c r="F50" t="s">
+        <v>101</v>
+      </c>
+      <c r="G50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52">
+        <v>217</v>
+      </c>
+      <c r="F52" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54">
+        <v>109</v>
+      </c>
+      <c r="F54" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>104</v>
+      </c>
+      <c r="G55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56">
+        <v>4897</v>
+      </c>
+      <c r="F56" t="s">
+        <v>101</v>
+      </c>
+      <c r="G56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57">
+        <v>5495</v>
+      </c>
+      <c r="F57" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58">
+        <v>962</v>
+      </c>
+      <c r="F58" t="s">
+        <v>101</v>
+      </c>
+      <c r="G58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59">
+        <v>368</v>
+      </c>
+      <c r="F59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" t="s">
+        <v>169</v>
+      </c>
+      <c r="E60">
+        <v>-385</v>
+      </c>
+      <c r="F60" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61">
+        <v>962</v>
+      </c>
+      <c r="F61" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" t="s">
+        <v>170</v>
+      </c>
+      <c r="D62" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62">
+        <v>325</v>
+      </c>
+      <c r="F62" t="s">
+        <v>104</v>
+      </c>
+      <c r="G62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" t="s">
+        <v>169</v>
+      </c>
+      <c r="E63">
+        <v>-385</v>
+      </c>
+      <c r="F63" t="s">
+        <v>104</v>
+      </c>
+      <c r="G63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64">
+        <v>1086</v>
+      </c>
+      <c r="F64" t="s">
+        <v>101</v>
+      </c>
+      <c r="G64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65">
+        <v>64</v>
+      </c>
+      <c r="F65" t="s">
+        <v>104</v>
+      </c>
+      <c r="G65" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" t="s">
+        <v>167</v>
+      </c>
+      <c r="E66">
+        <v>962</v>
+      </c>
+      <c r="F66" t="s">
+        <v>101</v>
+      </c>
+      <c r="G66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67">
+        <v>410</v>
+      </c>
+      <c r="F67" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" t="s">
+        <v>169</v>
+      </c>
+      <c r="E68">
+        <v>-385</v>
+      </c>
+      <c r="F68" t="s">
+        <v>104</v>
+      </c>
+      <c r="G68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69">
+        <v>1086</v>
+      </c>
+      <c r="F69" t="s">
+        <v>101</v>
+      </c>
+      <c r="G69" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" t="s">
+        <v>177</v>
+      </c>
+      <c r="D70" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70">
+        <v>160</v>
+      </c>
+      <c r="F70" t="s">
+        <v>104</v>
+      </c>
+      <c r="G70" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71">
+        <v>-434</v>
+      </c>
+      <c r="F71" t="s">
+        <v>104</v>
+      </c>
+      <c r="G71" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72">
+        <v>962</v>
+      </c>
+      <c r="F72" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73">
+        <v>354</v>
+      </c>
+      <c r="F73" t="s">
+        <v>104</v>
+      </c>
+      <c r="G73" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74">
+        <v>-385</v>
+      </c>
+      <c r="F74" t="s">
+        <v>104</v>
+      </c>
+      <c r="G74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" t="s">
+        <v>117</v>
+      </c>
+      <c r="E75">
+        <v>1086</v>
+      </c>
+      <c r="F75" t="s">
+        <v>101</v>
+      </c>
+      <c r="G75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" t="s">
+        <v>181</v>
+      </c>
+      <c r="D76" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76">
+        <v>48</v>
+      </c>
+      <c r="F76" t="s">
+        <v>104</v>
+      </c>
+      <c r="G76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>174</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" t="s">
+        <v>167</v>
+      </c>
+      <c r="E77">
+        <v>1037</v>
+      </c>
+      <c r="F77" t="s">
+        <v>101</v>
+      </c>
+      <c r="G77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78">
+        <v>259</v>
+      </c>
+      <c r="F78" t="s">
+        <v>104</v>
+      </c>
+      <c r="G78" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>182</v>
+      </c>
+      <c r="D79" t="s">
+        <v>169</v>
+      </c>
+      <c r="E79">
+        <v>-415</v>
+      </c>
+      <c r="F79" t="s">
+        <v>104</v>
+      </c>
+      <c r="G79" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
+        <v>184</v>
+      </c>
+      <c r="D80" t="s">
+        <v>117</v>
+      </c>
+      <c r="E80">
+        <v>1086</v>
+      </c>
+      <c r="F80" t="s">
+        <v>101</v>
+      </c>
+      <c r="G80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>184</v>
+      </c>
+      <c r="D81" t="s">
+        <v>103</v>
+      </c>
+      <c r="E81">
+        <v>32</v>
+      </c>
+      <c r="F81" t="s">
+        <v>104</v>
+      </c>
+      <c r="G81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>185</v>
+      </c>
+      <c r="D82" t="s">
+        <v>167</v>
+      </c>
+      <c r="E82">
+        <v>1037</v>
+      </c>
+      <c r="F82" t="s">
+        <v>101</v>
+      </c>
+      <c r="G82" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>185</v>
+      </c>
+      <c r="D83" t="s">
+        <v>103</v>
+      </c>
+      <c r="E83">
+        <v>244</v>
+      </c>
+      <c r="F83" t="s">
+        <v>104</v>
+      </c>
+      <c r="G83" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>185</v>
+      </c>
+      <c r="D84" t="s">
+        <v>169</v>
+      </c>
+      <c r="E84">
+        <v>-415</v>
+      </c>
+      <c r="F84" t="s">
+        <v>104</v>
+      </c>
+      <c r="G84" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>187</v>
+      </c>
+      <c r="D85" t="s">
+        <v>117</v>
+      </c>
+      <c r="E85">
+        <v>1086</v>
+      </c>
+      <c r="F85" t="s">
+        <v>101</v>
+      </c>
+      <c r="G85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s">
+        <v>187</v>
+      </c>
+      <c r="D86" t="s">
+        <v>103</v>
+      </c>
+      <c r="E86">
+        <v>16</v>
+      </c>
+      <c r="F86" t="s">
+        <v>104</v>
+      </c>
+      <c r="G86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>188</v>
+      </c>
+      <c r="D87" t="s">
+        <v>100</v>
+      </c>
+      <c r="E87">
+        <v>104</v>
+      </c>
+      <c r="F87" t="s">
+        <v>101</v>
+      </c>
+      <c r="G87" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" t="s">
+        <v>103</v>
+      </c>
+      <c r="E88">
+        <v>23</v>
+      </c>
+      <c r="F88" t="s">
+        <v>104</v>
+      </c>
+      <c r="G88" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" t="s">
+        <v>191</v>
+      </c>
+      <c r="D89" t="s">
+        <v>167</v>
+      </c>
+      <c r="E89">
+        <v>1037</v>
+      </c>
+      <c r="F89" t="s">
+        <v>101</v>
+      </c>
+      <c r="G89" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" t="s">
+        <v>191</v>
+      </c>
+      <c r="D90" t="s">
+        <v>103</v>
+      </c>
+      <c r="E90">
+        <v>183</v>
+      </c>
+      <c r="F90" t="s">
+        <v>104</v>
+      </c>
+      <c r="G90" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" t="s">
+        <v>191</v>
+      </c>
+      <c r="D91" t="s">
+        <v>169</v>
+      </c>
+      <c r="E91">
+        <v>-415</v>
+      </c>
+      <c r="F91" t="s">
+        <v>104</v>
+      </c>
+      <c r="G91" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" t="s">
+        <v>117</v>
+      </c>
+      <c r="E92">
+        <v>1086</v>
+      </c>
+      <c r="F92" t="s">
+        <v>101</v>
+      </c>
+      <c r="G92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" t="s">
+        <v>193</v>
+      </c>
+      <c r="D93" t="s">
+        <v>103</v>
+      </c>
+      <c r="E93">
+        <v>32</v>
+      </c>
+      <c r="F93" t="s">
+        <v>104</v>
+      </c>
+      <c r="G93" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E94">
+        <v>1086</v>
+      </c>
+      <c r="F94" t="s">
+        <v>101</v>
+      </c>
+      <c r="G94" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" t="s">
+        <v>194</v>
+      </c>
+      <c r="D95" t="s">
+        <v>103</v>
+      </c>
+      <c r="E95">
+        <v>16</v>
+      </c>
+      <c r="F95" t="s">
+        <v>104</v>
+      </c>
+      <c r="G95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96" t="s">
+        <v>114</v>
+      </c>
+      <c r="E96">
+        <v>1086</v>
+      </c>
+      <c r="F96" t="s">
+        <v>101</v>
+      </c>
+      <c r="G96" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" t="s">
+        <v>195</v>
+      </c>
+      <c r="D97" t="s">
+        <v>115</v>
+      </c>
+      <c r="E97">
         <v>-543</v>
       </c>
-      <c r="F49" t="s">
-        <v>99</v>
-      </c>
-      <c r="G49" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" t="s">
-        <v>155</v>
-      </c>
-      <c r="D50" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50">
+      <c r="F97" t="s">
+        <v>104</v>
+      </c>
+      <c r="G97" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="s">
+        <v>198</v>
+      </c>
+      <c r="D98" t="s">
+        <v>167</v>
+      </c>
+      <c r="E98">
         <v>1037</v>
       </c>
-      <c r="F50" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51">
+      <c r="F98" t="s">
+        <v>101</v>
+      </c>
+      <c r="G98" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" t="s">
         <v>198</v>
       </c>
-      <c r="F51" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52">
+      <c r="D99" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99">
+        <v>290</v>
+      </c>
+      <c r="F99" t="s">
+        <v>104</v>
+      </c>
+      <c r="G99" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" t="s">
+        <v>198</v>
+      </c>
+      <c r="D100" t="s">
+        <v>169</v>
+      </c>
+      <c r="E100">
+        <v>-415</v>
+      </c>
+      <c r="F100" t="s">
+        <v>104</v>
+      </c>
+      <c r="G100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" t="s">
+        <v>200</v>
+      </c>
+      <c r="D101" t="s">
+        <v>167</v>
+      </c>
+      <c r="E101">
         <v>1037</v>
       </c>
-      <c r="F52" t="s">
-        <v>96</v>
-      </c>
-      <c r="G52" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53">
-        <v>183</v>
-      </c>
-      <c r="F53" t="s">
-        <v>99</v>
-      </c>
-      <c r="G53" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54">
-        <v>104</v>
-      </c>
-      <c r="F54" t="s">
-        <v>96</v>
-      </c>
-      <c r="G54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55">
-        <v>15</v>
-      </c>
-      <c r="F55" t="s">
-        <v>99</v>
-      </c>
-      <c r="G55" t="s">
-        <v>160</v>
-      </c>
-    </row>
+      <c r="F101" t="s">
+        <v>101</v>
+      </c>
+      <c r="G101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B102" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" t="s">
+        <v>200</v>
+      </c>
+      <c r="D102" t="s">
+        <v>103</v>
+      </c>
+      <c r="E102">
+        <v>274</v>
+      </c>
+      <c r="F102" t="s">
+        <v>104</v>
+      </c>
+      <c r="G102" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>196</v>
+      </c>
+      <c r="B103" t="s">
+        <v>197</v>
+      </c>
+      <c r="C103" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103" t="s">
+        <v>169</v>
+      </c>
+      <c r="E103">
+        <v>-415</v>
+      </c>
+      <c r="F103" t="s">
+        <v>104</v>
+      </c>
+      <c r="G103" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>196</v>
+      </c>
+      <c r="B104" t="s">
+        <v>197</v>
+      </c>
+      <c r="C104" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" t="s">
+        <v>167</v>
+      </c>
+      <c r="E104">
+        <v>1037</v>
+      </c>
+      <c r="F104" t="s">
+        <v>101</v>
+      </c>
+      <c r="G104" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>196</v>
+      </c>
+      <c r="B105" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105" t="s">
+        <v>202</v>
+      </c>
+      <c r="D105" t="s">
+        <v>103</v>
+      </c>
+      <c r="E105">
+        <v>244</v>
+      </c>
+      <c r="F105" t="s">
+        <v>104</v>
+      </c>
+      <c r="G105" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>196</v>
+      </c>
+      <c r="B106" t="s">
+        <v>197</v>
+      </c>
+      <c r="C106" t="s">
+        <v>202</v>
+      </c>
+      <c r="D106" t="s">
+        <v>169</v>
+      </c>
+      <c r="E106">
+        <v>-415</v>
+      </c>
+      <c r="F106" t="s">
+        <v>104</v>
+      </c>
+      <c r="G106" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" t="s">
+        <v>197</v>
+      </c>
+      <c r="C107" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" t="s">
+        <v>117</v>
+      </c>
+      <c r="E107">
+        <v>1086</v>
+      </c>
+      <c r="F107" t="s">
+        <v>101</v>
+      </c>
+      <c r="G107" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>196</v>
+      </c>
+      <c r="B108" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108" t="s">
+        <v>204</v>
+      </c>
+      <c r="D108" t="s">
+        <v>103</v>
+      </c>
+      <c r="E108">
+        <v>64</v>
+      </c>
+      <c r="F108" t="s">
+        <v>104</v>
+      </c>
+      <c r="G108" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="109" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" t="s">
+        <v>206</v>
+      </c>
+      <c r="D109" t="s">
+        <v>114</v>
+      </c>
+      <c r="E109">
+        <v>1131</v>
+      </c>
+      <c r="F109" t="s">
+        <v>101</v>
+      </c>
+      <c r="G109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>196</v>
+      </c>
+      <c r="B110" t="s">
+        <v>197</v>
+      </c>
+      <c r="C110" t="s">
+        <v>206</v>
+      </c>
+      <c r="D110" t="s">
+        <v>115</v>
+      </c>
+      <c r="E110">
+        <v>-565</v>
+      </c>
+      <c r="F110" t="s">
+        <v>104</v>
+      </c>
+      <c r="G110" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" ht="15" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" t="s">
+        <v>208</v>
+      </c>
+      <c r="D111" t="s">
+        <v>111</v>
+      </c>
+      <c r="E111">
+        <v>109</v>
+      </c>
+      <c r="F111" t="s">
+        <v>101</v>
+      </c>
+      <c r="G111" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" ht="14.45" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>174</v>
+      </c>
+      <c r="B112" t="s">
+        <v>207</v>
+      </c>
+      <c r="C112" t="s">
+        <v>208</v>
+      </c>
+      <c r="D112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E112">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>104</v>
+      </c>
+      <c r="G112" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" ht="14.45" customHeight="1" hidden="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>174</v>
+      </c>
+      <c r="B113" t="s">
+        <v>207</v>
+      </c>
+      <c r="C113" t="s">
+        <v>210</v>
+      </c>
+      <c r="D113" t="s">
+        <v>211</v>
+      </c>
+      <c r="E113">
+        <v>514</v>
+      </c>
+      <c r="F113" t="s">
+        <v>101</v>
+      </c>
+      <c r="G113" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.45" customHeight="1" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:H219"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
@@ -2232,10 +3840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="83" zoomScaleNormal="100">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" defaultColWidth="9.140625" customHeight="1"/>
@@ -2260,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2298,7 +3906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>5</v>
       </c>
@@ -2319,19 +3927,19 @@
       </c>
       <c r="G3" s="4">
         <f>COUNTIFS(Nuevas!A:A,Tableros!A3,Nuevas!F:F,"P")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H3" s="5">
         <f>SUMIF(Nuevas!A:A,Tableros!A3,Nuevas!E:E)</f>
-        <v>55</v>
+        <v>3728</v>
       </c>
       <c r="I3" s="4">
         <f>COUNTIFS(Viejas!A:A,Tableros!A3,Viejas!F:F,"P")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J3" s="5">
         <f>SUMIF(Viejas!A:A,Tableros!A3,Viejas!E:E)</f>
-        <v>55</v>
+        <v>3728</v>
       </c>
       <c r="K3" s="4">
         <f>G3-I3</f>
@@ -2342,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>10</v>
       </c>
@@ -2378,15 +3986,15 @@
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K24" si="0">G4-I4</f>
+        <f t="shared" ref="K4:K23" si="0">G4-I4</f>
         <v>0</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" ref="L4:L24" si="1">H4-J4</f>
+        <f t="shared" ref="L4:L25" si="1">H4-J4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>11</v>
       </c>
@@ -2430,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>12</v>
       </c>
@@ -2474,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>14</v>
       </c>
@@ -2499,7 +4107,7 @@
       </c>
       <c r="H7" s="5">
         <f>SUMIF(Nuevas!A:A,Tableros!A7,Nuevas!E:E)</f>
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="I7" s="4">
         <f>COUNTIFS(Viejas!A:A,Tableros!A7,Viejas!F:F,"P")</f>
@@ -2507,7 +4115,7 @@
       </c>
       <c r="J7" s="5">
         <f>SUMIF(Viejas!A:A,Tableros!A7,Viejas!E:E)</f>
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="0"/>
@@ -2518,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>15</v>
       </c>
@@ -2539,19 +4147,19 @@
       </c>
       <c r="G8" s="4">
         <f>COUNTIFS(Nuevas!A:A,Tableros!A8,Nuevas!F:F,"P")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8" s="5">
         <f>SUMIF(Nuevas!A:A,Tableros!A8,Nuevas!E:E)</f>
-        <v>7263</v>
+        <v>7926</v>
       </c>
       <c r="I8" s="4">
         <f>COUNTIFS(Viejas!A:A,Tableros!A8,Viejas!F:F,"P")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8" s="5">
         <f>SUMIF(Viejas!A:A,Tableros!A8,Viejas!E:E)</f>
-        <v>7263</v>
+        <v>7926</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="0"/>
@@ -2562,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>16</v>
       </c>
@@ -2587,7 +4195,7 @@
       </c>
       <c r="H9" s="5">
         <f>SUMIF(Nuevas!A:A,Tableros!A9,Nuevas!E:E)</f>
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="I9" s="4">
         <f>COUNTIFS(Viejas!A:A,Tableros!A9,Viejas!F:F,"P")</f>
@@ -2595,7 +4203,7 @@
       </c>
       <c r="J9" s="5">
         <f>SUMIF(Viejas!A:A,Tableros!A9,Viejas!E:E)</f>
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="0"/>
@@ -2606,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>17</v>
       </c>
@@ -2627,19 +4235,19 @@
       </c>
       <c r="G10" s="4">
         <f>COUNTIFS(Nuevas!A:A,Tableros!A10,Nuevas!F:F,"P")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="5">
         <f>SUMIF(Nuevas!A:A,Tableros!A10,Nuevas!E:E)</f>
-        <v>5579</v>
+        <v>6847</v>
       </c>
       <c r="I10" s="4">
         <f>COUNTIFS(Viejas!A:A,Tableros!A10,Viejas!F:F,"P")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" s="5">
         <f>SUMIF(Viejas!A:A,Tableros!A10,Viejas!E:E)</f>
-        <v>5579</v>
+        <v>6847</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="0"/>
@@ -2650,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>18</v>
       </c>
@@ -2671,19 +4279,19 @@
       </c>
       <c r="G11" s="4">
         <f>COUNTIFS(Nuevas!A:A,Tableros!A11,Nuevas!F:F,"P")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="5">
         <f>SUMIF(Nuevas!A:A,Tableros!A11,Nuevas!E:E)</f>
-        <v>5713</v>
+        <v>6178</v>
       </c>
       <c r="I11" s="4">
         <f>COUNTIFS(Viejas!A:A,Tableros!A11,Viejas!F:F,"P")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="5">
         <f>SUMIF(Viejas!A:A,Tableros!A11,Viejas!E:E)</f>
-        <v>5713</v>
+        <v>6178</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
@@ -2694,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>19</v>
       </c>
@@ -2715,19 +4323,19 @@
       </c>
       <c r="G12" s="4">
         <f>COUNTIFS(Nuevas!A:A,Tableros!A12,Nuevas!F:F,"P")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="5">
         <f>SUMIF(Nuevas!A:A,Tableros!A12,Nuevas!E:E)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I12" s="4">
         <f>COUNTIFS(Viejas!A:A,Tableros!A12,Viejas!F:F,"P")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="5">
         <f>SUMIF(Viejas!A:A,Tableros!A12,Viejas!E:E)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="0"/>
@@ -2738,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>20</v>
       </c>
@@ -2759,19 +4367,19 @@
       </c>
       <c r="G13" s="4">
         <f>COUNTIFS(Nuevas!A:A,Tableros!A13,Nuevas!F:F,"P")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="5">
         <f>SUMIF(Nuevas!A:A,Tableros!A13,Nuevas!E:E)</f>
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="I13" s="4">
         <f>COUNTIFS(Viejas!A:A,Tableros!A13,Viejas!F:F,"P")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="5">
         <f>SUMIF(Viejas!A:A,Tableros!A13,Viejas!E:E)</f>
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="0"/>
@@ -2782,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>21</v>
       </c>
@@ -2807,7 +4415,7 @@
       </c>
       <c r="H14" s="5">
         <f>SUMIF(Nuevas!A:A,Tableros!A14,Nuevas!E:E)</f>
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="I14" s="4">
         <f>COUNTIFS(Viejas!A:A,Tableros!A14,Viejas!F:F,"P")</f>
@@ -2815,7 +4423,7 @@
       </c>
       <c r="J14" s="5">
         <f>SUMIF(Viejas!A:A,Tableros!A14,Viejas!E:E)</f>
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="0"/>
@@ -2826,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>22</v>
       </c>
@@ -2851,7 +4459,7 @@
       </c>
       <c r="H15" s="5">
         <f>SUMIF(Nuevas!A:A,Tableros!A15,Nuevas!E:E)</f>
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="I15" s="4">
         <f>COUNTIFS(Viejas!A:A,Tableros!A15,Viejas!F:F,"P")</f>
@@ -2859,7 +4467,7 @@
       </c>
       <c r="J15" s="5">
         <f>SUMIF(Viejas!A:A,Tableros!A15,Viejas!E:E)</f>
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="0"/>
@@ -2870,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>23</v>
       </c>
@@ -2914,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>24</v>
       </c>
@@ -2935,19 +4543,19 @@
       </c>
       <c r="G17" s="4">
         <f>COUNTIFS(Nuevas!A:A,Tableros!A17,Nuevas!F:F,"P")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="5">
         <f>SUMIF(Nuevas!A:A,Tableros!A17,Nuevas!E:E)</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="I17" s="4">
         <f>COUNTIFS(Viejas!A:A,Tableros!A17,Viejas!F:F,"P")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="5">
         <f>SUMIF(Viejas!A:A,Tableros!A17,Viejas!E:E)</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="0"/>
@@ -2958,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>25</v>
       </c>
@@ -3002,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>26</v>
       </c>
@@ -3046,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>67</v>
       </c>
@@ -3090,7 +4698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>72</v>
       </c>
@@ -3134,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>76</v>
       </c>
@@ -3159,7 +4767,7 @@
       </c>
       <c r="H22" s="5">
         <f>SUMIF(Nuevas!A:A,Tableros!A22,Nuevas!E:E)</f>
-        <v>3317</v>
+        <v>2983</v>
       </c>
       <c r="I22" s="4">
         <f>COUNTIFS(Viejas!A:A,Tableros!A22,Viejas!F:F,"P")</f>
@@ -3167,7 +4775,7 @@
       </c>
       <c r="J22" s="5">
         <f>SUMIF(Viejas!A:A,Tableros!A22,Viejas!E:E)</f>
-        <v>3317</v>
+        <v>2983</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="0"/>
@@ -3178,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>81</v>
       </c>
@@ -3199,19 +4807,19 @@
       </c>
       <c r="G23" s="4">
         <f>COUNTIFS(Nuevas!A:A,Tableros!A23,Nuevas!F:F,"P")</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H23" s="5">
         <f>SUMIF(Nuevas!A:A,Tableros!A23,Nuevas!E:E)</f>
-        <v>6828</v>
+        <v>3281</v>
       </c>
       <c r="I23" s="4">
         <f>COUNTIFS(Viejas!A:A,Tableros!A23,Viejas!F:F,"P")</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J23" s="5">
         <f>SUMIF(Viejas!A:A,Tableros!A23,Viejas!E:E)</f>
-        <v>6828</v>
+        <v>3281</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" si="0"/>
@@ -3222,36 +4830,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="19.5" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7" t="s">
+    <row r="24" ht="18" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="7">
-        <f>SUM(G3:G23)</f>
-        <v>28</v>
-      </c>
-      <c r="H24" s="8">
-        <f>SUM(H3:H23)</f>
-        <v>40958</v>
-      </c>
-      <c r="I24" s="7">
-        <f>SUM(I3:I23)</f>
-        <v>28</v>
-      </c>
-      <c r="J24" s="8">
-        <f>SUM(J3:J23)</f>
-        <v>40958</v>
-      </c>
-      <c r="K24" s="9">
-        <f t="shared" si="0"/>
+      <c r="B24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="4">
+        <f>COUNTIFS(Nuevas!A:A,Tableros!A24,Nuevas!F:F,"P")</f>
         <v>0</v>
       </c>
-      <c r="L24" s="10">
+      <c r="H24" s="5">
+        <f>SUMIF(Nuevas!A:A,Tableros!A24,Nuevas!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <f>COUNTIFS(Viejas!A:A,Tableros!A24,Viejas!F:F,"P")</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <f>SUMIF(Viejas!A:A,Tableros!A24,Viejas!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" ref="K24" si="2">G24-I24</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" ref="L24" si="3">H24-J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="19.5" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="8">
+        <f>SUM(G3:G24)</f>
+        <v>38</v>
+      </c>
+      <c r="H25" s="9">
+        <f>SUM(H3:H24)</f>
+        <v>43582</v>
+      </c>
+      <c r="I25" s="8">
+        <f>SUM(I3:I24)</f>
+        <v>38</v>
+      </c>
+      <c r="J25" s="9">
+        <f>SUM(J3:J24)</f>
+        <v>43582</v>
+      </c>
+      <c r="K25" s="10">
+        <f>SUM(K3:K24)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3264,13 +4916,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="B111" sqref="B111"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="9.140625"/>
+  <sheetFormatPr defaultRowHeight="14.45" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="9.140625" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="96.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>5</v>
       </c>
@@ -3278,22 +4941,22 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E1">
         <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" ht="14.45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -3301,1169 +4964,2802 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>-54</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>1140</v>
+        <v>1086</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E4">
+        <v>-271</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
         <v>109</v>
       </c>
-      <c r="F4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5">
-        <v>-54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8">
+        <v>1086</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9">
+        <v>-543</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10">
+        <v>1086</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11">
+        <v>-271</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12">
+        <v>1086</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13">
+        <v>-271</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14">
+        <v>1086</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15">
+        <v>-271</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16">
+        <v>1140</v>
+      </c>
+      <c r="F16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8">
-        <v>1656</v>
-      </c>
-      <c r="F8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9">
-        <v>5495</v>
-      </c>
-      <c r="F9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10">
-        <v>109</v>
-      </c>
-      <c r="F10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11">
-        <v>-27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13">
-        <v>2171</v>
-      </c>
-      <c r="F13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14">
-        <v>-1085</v>
-      </c>
-      <c r="F14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15">
-        <v>4493</v>
-      </c>
-      <c r="F15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16">
-        <v>217</v>
-      </c>
-      <c r="F16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17">
-        <v>-108</v>
-      </c>
-      <c r="F17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18">
-        <v>217</v>
-      </c>
-      <c r="F18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19">
-        <v>-108</v>
-      </c>
-      <c r="F19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E20">
-        <v>5495</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>124</v>
       </c>
       <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>109</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" t="s">
         <v>125</v>
       </c>
-      <c r="E21">
-        <v>104</v>
-      </c>
-      <c r="F21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>127</v>
-      </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="E23">
-        <v>109</v>
+        <v>1086</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E24">
-        <v>-27</v>
+        <v>-271</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>1656</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="E26">
+        <v>5495</v>
+      </c>
+      <c r="F26" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27">
         <v>109</v>
       </c>
-      <c r="F26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E28">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29">
+        <v>2171</v>
+      </c>
+      <c r="F29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30">
+        <v>128</v>
+      </c>
+      <c r="F30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>109</v>
+      </c>
+      <c r="F31" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32">
+        <v>-54</v>
+      </c>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33">
+        <v>4493</v>
+      </c>
+      <c r="F33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34">
+        <v>217</v>
+      </c>
+      <c r="F34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36">
+        <v>217</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38">
+        <v>217</v>
+      </c>
+      <c r="F38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40">
+        <v>5495</v>
+      </c>
+      <c r="F40" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>109</v>
+      </c>
+      <c r="F41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42">
+        <v>-54</v>
+      </c>
+      <c r="F42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43">
+        <v>104</v>
+      </c>
+      <c r="F43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45">
+        <v>109</v>
+      </c>
+      <c r="F45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47">
+        <v>109</v>
+      </c>
+      <c r="F47" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>22</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B49" t="s">
         <v>51</v>
       </c>
-      <c r="C29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29">
+      <c r="C49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49">
+        <v>109</v>
+      </c>
+      <c r="F49" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51">
+        <v>217</v>
+      </c>
+      <c r="F51" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53">
+        <v>109</v>
+      </c>
+      <c r="F53" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55">
+        <v>4897</v>
+      </c>
+      <c r="F55" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56">
+        <v>5495</v>
+      </c>
+      <c r="F56" t="s">
+        <v>101</v>
+      </c>
+      <c r="G56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57">
+        <v>962</v>
+      </c>
+      <c r="F57" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58">
+        <v>368</v>
+      </c>
+      <c r="F58" t="s">
+        <v>104</v>
+      </c>
+      <c r="G58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59">
+        <v>-385</v>
+      </c>
+      <c r="F59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" t="s">
+        <v>167</v>
+      </c>
+      <c r="E60">
+        <v>962</v>
+      </c>
+      <c r="F60" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61">
+        <v>325</v>
+      </c>
+      <c r="F61" t="s">
+        <v>104</v>
+      </c>
+      <c r="G61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" t="s">
+        <v>170</v>
+      </c>
+      <c r="D62" t="s">
+        <v>169</v>
+      </c>
+      <c r="E62">
+        <v>-385</v>
+      </c>
+      <c r="F62" t="s">
+        <v>104</v>
+      </c>
+      <c r="G62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63">
+        <v>1086</v>
+      </c>
+      <c r="F63" t="s">
+        <v>101</v>
+      </c>
+      <c r="G63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64">
+        <v>64</v>
+      </c>
+      <c r="F64" t="s">
+        <v>104</v>
+      </c>
+      <c r="G64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65">
+        <v>962</v>
+      </c>
+      <c r="F65" t="s">
+        <v>101</v>
+      </c>
+      <c r="G65" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66">
+        <v>410</v>
+      </c>
+      <c r="F66" t="s">
+        <v>104</v>
+      </c>
+      <c r="G66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67">
+        <v>-385</v>
+      </c>
+      <c r="F67" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" t="s">
+        <v>167</v>
+      </c>
+      <c r="E68">
+        <v>1086</v>
+      </c>
+      <c r="F68" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69">
+        <v>160</v>
+      </c>
+      <c r="F69" t="s">
+        <v>104</v>
+      </c>
+      <c r="G69" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" t="s">
+        <v>177</v>
+      </c>
+      <c r="D70" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70">
+        <v>-434</v>
+      </c>
+      <c r="F70" t="s">
+        <v>104</v>
+      </c>
+      <c r="G70" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71">
+        <v>962</v>
+      </c>
+      <c r="F71" t="s">
+        <v>101</v>
+      </c>
+      <c r="G71" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72">
+        <v>354</v>
+      </c>
+      <c r="F72" t="s">
+        <v>104</v>
+      </c>
+      <c r="G72" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" t="s">
+        <v>169</v>
+      </c>
+      <c r="E73">
+        <v>-385</v>
+      </c>
+      <c r="F73" t="s">
+        <v>104</v>
+      </c>
+      <c r="G73" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74">
+        <v>1086</v>
+      </c>
+      <c r="F74" t="s">
+        <v>101</v>
+      </c>
+      <c r="G74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75">
+        <v>48</v>
+      </c>
+      <c r="F75" t="s">
+        <v>104</v>
+      </c>
+      <c r="G75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" t="s">
+        <v>182</v>
+      </c>
+      <c r="D76" t="s">
+        <v>167</v>
+      </c>
+      <c r="E76">
+        <v>1037</v>
+      </c>
+      <c r="F76" t="s">
+        <v>101</v>
+      </c>
+      <c r="G76" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>174</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77">
+        <v>259</v>
+      </c>
+      <c r="F77" t="s">
+        <v>104</v>
+      </c>
+      <c r="G77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" t="s">
+        <v>169</v>
+      </c>
+      <c r="E78">
+        <v>-415</v>
+      </c>
+      <c r="F78" t="s">
+        <v>104</v>
+      </c>
+      <c r="G78" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" t="s">
+        <v>117</v>
+      </c>
+      <c r="E79">
+        <v>1086</v>
+      </c>
+      <c r="F79" t="s">
+        <v>101</v>
+      </c>
+      <c r="G79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
+        <v>184</v>
+      </c>
+      <c r="D80" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80">
+        <v>32</v>
+      </c>
+      <c r="F80" t="s">
+        <v>104</v>
+      </c>
+      <c r="G80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" t="s">
+        <v>167</v>
+      </c>
+      <c r="E81">
+        <v>1037</v>
+      </c>
+      <c r="F81" t="s">
+        <v>101</v>
+      </c>
+      <c r="G81" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>185</v>
+      </c>
+      <c r="D82" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82">
+        <v>244</v>
+      </c>
+      <c r="F82" t="s">
+        <v>104</v>
+      </c>
+      <c r="G82" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>185</v>
+      </c>
+      <c r="D83" t="s">
+        <v>169</v>
+      </c>
+      <c r="E83">
+        <v>-415</v>
+      </c>
+      <c r="F83" t="s">
+        <v>104</v>
+      </c>
+      <c r="G83" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>187</v>
+      </c>
+      <c r="D84" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84">
+        <v>1086</v>
+      </c>
+      <c r="F84" t="s">
+        <v>101</v>
+      </c>
+      <c r="G84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>187</v>
+      </c>
+      <c r="D85" t="s">
+        <v>103</v>
+      </c>
+      <c r="E85">
+        <v>16</v>
+      </c>
+      <c r="F85" t="s">
+        <v>104</v>
+      </c>
+      <c r="G85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s">
+        <v>188</v>
+      </c>
+      <c r="D86" t="s">
+        <v>100</v>
+      </c>
+      <c r="E86">
+        <v>104</v>
+      </c>
+      <c r="F86" t="s">
+        <v>101</v>
+      </c>
+      <c r="G86" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>188</v>
+      </c>
+      <c r="D87" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87">
+        <v>21</v>
+      </c>
+      <c r="F87" t="s">
+        <v>104</v>
+      </c>
+      <c r="G87" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" t="s">
+        <v>191</v>
+      </c>
+      <c r="D88" t="s">
+        <v>167</v>
+      </c>
+      <c r="E88">
+        <v>1037</v>
+      </c>
+      <c r="F88" t="s">
+        <v>101</v>
+      </c>
+      <c r="G88" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" t="s">
+        <v>191</v>
+      </c>
+      <c r="D89" t="s">
+        <v>103</v>
+      </c>
+      <c r="E89">
+        <v>183</v>
+      </c>
+      <c r="F89" t="s">
+        <v>104</v>
+      </c>
+      <c r="G89" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" t="s">
+        <v>191</v>
+      </c>
+      <c r="D90" t="s">
+        <v>169</v>
+      </c>
+      <c r="E90">
+        <v>-415</v>
+      </c>
+      <c r="F90" t="s">
+        <v>104</v>
+      </c>
+      <c r="G90" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" t="s">
+        <v>193</v>
+      </c>
+      <c r="D91" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91">
+        <v>1086</v>
+      </c>
+      <c r="F91" t="s">
+        <v>101</v>
+      </c>
+      <c r="G91" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" t="s">
+        <v>103</v>
+      </c>
+      <c r="E92">
+        <v>32</v>
+      </c>
+      <c r="F92" t="s">
+        <v>104</v>
+      </c>
+      <c r="G92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" t="s">
+        <v>117</v>
+      </c>
+      <c r="E93">
+        <v>1086</v>
+      </c>
+      <c r="F93" t="s">
+        <v>101</v>
+      </c>
+      <c r="G93" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" t="s">
+        <v>103</v>
+      </c>
+      <c r="E94">
+        <v>16</v>
+      </c>
+      <c r="F94" t="s">
+        <v>104</v>
+      </c>
+      <c r="G94" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" t="s">
+        <v>114</v>
+      </c>
+      <c r="E95">
+        <v>1086</v>
+      </c>
+      <c r="F95" t="s">
+        <v>101</v>
+      </c>
+      <c r="G95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96" t="s">
+        <v>115</v>
+      </c>
+      <c r="E96">
+        <v>-543</v>
+      </c>
+      <c r="F96" t="s">
+        <v>104</v>
+      </c>
+      <c r="G96" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" t="s">
+        <v>198</v>
+      </c>
+      <c r="D97" t="s">
+        <v>167</v>
+      </c>
+      <c r="E97">
+        <v>1037</v>
+      </c>
+      <c r="F97" t="s">
+        <v>101</v>
+      </c>
+      <c r="G97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="s">
+        <v>198</v>
+      </c>
+      <c r="D98" t="s">
+        <v>103</v>
+      </c>
+      <c r="E98">
+        <v>290</v>
+      </c>
+      <c r="F98" t="s">
+        <v>104</v>
+      </c>
+      <c r="G98" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" t="s">
+        <v>169</v>
+      </c>
+      <c r="E99">
+        <v>-415</v>
+      </c>
+      <c r="F99" t="s">
+        <v>104</v>
+      </c>
+      <c r="G99" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" t="s">
+        <v>200</v>
+      </c>
+      <c r="D100" t="s">
+        <v>167</v>
+      </c>
+      <c r="E100">
+        <v>1037</v>
+      </c>
+      <c r="F100" t="s">
+        <v>101</v>
+      </c>
+      <c r="G100" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" t="s">
+        <v>200</v>
+      </c>
+      <c r="D101" t="s">
+        <v>103</v>
+      </c>
+      <c r="E101">
+        <v>274</v>
+      </c>
+      <c r="F101" t="s">
+        <v>104</v>
+      </c>
+      <c r="G101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B102" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" t="s">
+        <v>200</v>
+      </c>
+      <c r="D102" t="s">
+        <v>169</v>
+      </c>
+      <c r="E102">
+        <v>-415</v>
+      </c>
+      <c r="F102" t="s">
+        <v>104</v>
+      </c>
+      <c r="G102" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>196</v>
+      </c>
+      <c r="B103" t="s">
+        <v>197</v>
+      </c>
+      <c r="C103" t="s">
+        <v>202</v>
+      </c>
+      <c r="D103" t="s">
+        <v>167</v>
+      </c>
+      <c r="E103">
+        <v>1037</v>
+      </c>
+      <c r="F103" t="s">
+        <v>101</v>
+      </c>
+      <c r="G103" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>196</v>
+      </c>
+      <c r="B104" t="s">
+        <v>197</v>
+      </c>
+      <c r="C104" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" t="s">
+        <v>103</v>
+      </c>
+      <c r="E104">
+        <v>244</v>
+      </c>
+      <c r="F104" t="s">
+        <v>104</v>
+      </c>
+      <c r="G104" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>196</v>
+      </c>
+      <c r="B105" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105" t="s">
+        <v>202</v>
+      </c>
+      <c r="D105" t="s">
+        <v>169</v>
+      </c>
+      <c r="E105">
+        <v>-415</v>
+      </c>
+      <c r="F105" t="s">
+        <v>104</v>
+      </c>
+      <c r="G105" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>196</v>
+      </c>
+      <c r="B106" t="s">
+        <v>197</v>
+      </c>
+      <c r="C106" t="s">
+        <v>204</v>
+      </c>
+      <c r="D106" t="s">
+        <v>117</v>
+      </c>
+      <c r="E106">
+        <v>1086</v>
+      </c>
+      <c r="F106" t="s">
+        <v>101</v>
+      </c>
+      <c r="G106" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" t="s">
+        <v>197</v>
+      </c>
+      <c r="C107" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" t="s">
+        <v>103</v>
+      </c>
+      <c r="E107">
+        <v>64</v>
+      </c>
+      <c r="F107" t="s">
+        <v>104</v>
+      </c>
+      <c r="G107" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>196</v>
+      </c>
+      <c r="B108" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108" t="s">
+        <v>206</v>
+      </c>
+      <c r="D108" t="s">
+        <v>114</v>
+      </c>
+      <c r="E108">
+        <v>1131</v>
+      </c>
+      <c r="F108" t="s">
+        <v>101</v>
+      </c>
+      <c r="G108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" t="s">
+        <v>206</v>
+      </c>
+      <c r="D109" t="s">
+        <v>115</v>
+      </c>
+      <c r="E109">
+        <v>-565</v>
+      </c>
+      <c r="F109" t="s">
+        <v>104</v>
+      </c>
+      <c r="G109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>174</v>
+      </c>
+      <c r="B110" t="s">
+        <v>207</v>
+      </c>
+      <c r="C110" t="s">
+        <v>208</v>
+      </c>
+      <c r="D110" t="s">
+        <v>111</v>
+      </c>
+      <c r="E110">
+        <v>109</v>
+      </c>
+      <c r="F110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G110" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" t="s">
+        <v>208</v>
+      </c>
+      <c r="D111" t="s">
+        <v>103</v>
+      </c>
+      <c r="E111">
         <v>6</v>
       </c>
-      <c r="F29" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30">
-        <v>4897</v>
-      </c>
-      <c r="F30" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31">
-        <v>5495</v>
-      </c>
-      <c r="F31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32">
-        <v>962</v>
-      </c>
-      <c r="F32" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33">
-        <v>297</v>
-      </c>
-      <c r="F33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34">
-        <v>962</v>
-      </c>
-      <c r="F34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" t="s">
-        <v>143</v>
-      </c>
-      <c r="D35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35">
-        <v>269</v>
-      </c>
-      <c r="F35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36">
+      <c r="F111" t="s">
+        <v>104</v>
+      </c>
+      <c r="G111" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>174</v>
+      </c>
+      <c r="B112" t="s">
+        <v>207</v>
+      </c>
+      <c r="C112" t="s">
+        <v>210</v>
+      </c>
+      <c r="D112" t="s">
+        <v>211</v>
+      </c>
+      <c r="E112">
+        <v>514</v>
+      </c>
+      <c r="F112" t="s">
+        <v>101</v>
+      </c>
+      <c r="G112" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>174</v>
+      </c>
+      <c r="B113" t="s">
+        <v>207</v>
+      </c>
+      <c r="C113" t="s">
+        <v>210</v>
+      </c>
+      <c r="D113" t="s">
+        <v>211</v>
+      </c>
+      <c r="E113">
+        <v>514</v>
+      </c>
+      <c r="F113" t="s">
+        <v>101</v>
+      </c>
+      <c r="G113" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>196</v>
+      </c>
+      <c r="B114" t="s">
+        <v>197</v>
+      </c>
+      <c r="C114" t="s">
+        <v>200</v>
+      </c>
+      <c r="D114" t="s">
+        <v>103</v>
+      </c>
+      <c r="E114">
+        <v>259</v>
+      </c>
+      <c r="F114" t="s">
+        <v>104</v>
+      </c>
+      <c r="G114" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="115" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>196</v>
+      </c>
+      <c r="B115" t="s">
+        <v>197</v>
+      </c>
+      <c r="C115" t="s">
+        <v>200</v>
+      </c>
+      <c r="D115" t="s">
+        <v>169</v>
+      </c>
+      <c r="E115">
+        <v>-415</v>
+      </c>
+      <c r="F115" t="s">
+        <v>104</v>
+      </c>
+      <c r="G115" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="116" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>196</v>
+      </c>
+      <c r="B116" t="s">
+        <v>197</v>
+      </c>
+      <c r="C116" t="s">
+        <v>202</v>
+      </c>
+      <c r="D116" t="s">
+        <v>167</v>
+      </c>
+      <c r="E116">
+        <v>1037</v>
+      </c>
+      <c r="F116" t="s">
+        <v>101</v>
+      </c>
+      <c r="G116" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="117" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>196</v>
+      </c>
+      <c r="B117" t="s">
+        <v>197</v>
+      </c>
+      <c r="C117" t="s">
+        <v>202</v>
+      </c>
+      <c r="D117" t="s">
+        <v>103</v>
+      </c>
+      <c r="E117">
+        <v>229</v>
+      </c>
+      <c r="F117" t="s">
+        <v>104</v>
+      </c>
+      <c r="G117" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="118" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>196</v>
+      </c>
+      <c r="B118" t="s">
+        <v>197</v>
+      </c>
+      <c r="C118" t="s">
+        <v>202</v>
+      </c>
+      <c r="D118" t="s">
+        <v>169</v>
+      </c>
+      <c r="E118">
+        <v>-415</v>
+      </c>
+      <c r="F118" t="s">
+        <v>104</v>
+      </c>
+      <c r="G118" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="119" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>196</v>
+      </c>
+      <c r="B119" t="s">
+        <v>197</v>
+      </c>
+      <c r="C119" t="s">
+        <v>204</v>
+      </c>
+      <c r="D119" t="s">
+        <v>117</v>
+      </c>
+      <c r="E119">
         <v>1086</v>
       </c>
-      <c r="F36" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37">
-        <v>-271</v>
-      </c>
-      <c r="F37" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38">
-        <v>12</v>
-      </c>
-      <c r="F38" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39">
-        <v>962</v>
-      </c>
-      <c r="F39" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40">
-        <v>339</v>
-      </c>
-      <c r="F40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41">
-        <v>1086</v>
-      </c>
-      <c r="F41" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42">
-        <v>80</v>
-      </c>
-      <c r="F42" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" t="s">
-        <v>141</v>
-      </c>
-      <c r="E43">
-        <v>962</v>
-      </c>
-      <c r="F43" t="s">
-        <v>96</v>
-      </c>
-      <c r="G43" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44">
-        <v>297</v>
-      </c>
-      <c r="F44" t="s">
-        <v>99</v>
-      </c>
-      <c r="G44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45">
-        <v>1086</v>
-      </c>
-      <c r="F45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46">
-        <v>-543</v>
-      </c>
-      <c r="F46" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47">
-        <v>1037</v>
-      </c>
-      <c r="F47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G47" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48">
-        <v>183</v>
-      </c>
-      <c r="F48" t="s">
-        <v>99</v>
-      </c>
-      <c r="G48" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49">
-        <v>1037</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
-      </c>
-      <c r="G49" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50">
-        <v>183</v>
-      </c>
-      <c r="F50" t="s">
-        <v>99</v>
-      </c>
-      <c r="G50" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51">
-        <v>104</v>
-      </c>
-      <c r="F51" t="s">
-        <v>96</v>
-      </c>
-      <c r="G51" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" t="s">
-        <v>159</v>
-      </c>
-      <c r="D52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52">
-        <v>15</v>
-      </c>
-      <c r="F52" t="s">
-        <v>99</v>
-      </c>
-      <c r="G52" t="s">
-        <v>160</v>
+      <c r="F119" t="s">
+        <v>101</v>
+      </c>
+      <c r="G119" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>196</v>
+      </c>
+      <c r="B120" t="s">
+        <v>197</v>
+      </c>
+      <c r="C120" t="s">
+        <v>204</v>
+      </c>
+      <c r="D120" t="s">
+        <v>103</v>
+      </c>
+      <c r="E120">
+        <v>48</v>
+      </c>
+      <c r="F120" t="s">
+        <v>104</v>
+      </c>
+      <c r="G120" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="121" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>174</v>
+      </c>
+      <c r="B121" t="s">
+        <v>207</v>
+      </c>
+      <c r="C121" t="s">
+        <v>208</v>
+      </c>
+      <c r="D121" t="s">
+        <v>111</v>
+      </c>
+      <c r="E121">
+        <v>109</v>
+      </c>
+      <c r="F121" t="s">
+        <v>101</v>
+      </c>
+      <c r="G121" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="122" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>174</v>
+      </c>
+      <c r="B122" t="s">
+        <v>207</v>
+      </c>
+      <c r="C122" t="s">
+        <v>208</v>
+      </c>
+      <c r="D122" t="s">
+        <v>103</v>
+      </c>
+      <c r="E122">
+        <v>5</v>
+      </c>
+      <c r="F122" t="s">
+        <v>104</v>
+      </c>
+      <c r="G122" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="123" ht="15" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>174</v>
+      </c>
+      <c r="B123" t="s">
+        <v>207</v>
+      </c>
+      <c r="C123" t="s">
+        <v>210</v>
+      </c>
+      <c r="D123" t="s">
+        <v>211</v>
+      </c>
+      <c r="E123">
+        <v>514</v>
+      </c>
+      <c r="F123" t="s">
+        <v>101</v>
+      </c>
+      <c r="G123" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
